--- a/SchedulingData/dynamic16/pso/scheduling1_6.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling1_6.xlsx
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>45.1</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
-        <v>27.68</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>86.22</v>
+        <v>101.66</v>
       </c>
       <c r="E3" t="n">
-        <v>27.008</v>
+        <v>22.644</v>
       </c>
     </row>
     <row r="4">
@@ -504,55 +504,55 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>101.66</v>
       </c>
       <c r="D4" t="n">
-        <v>67.90000000000001</v>
+        <v>166.74</v>
       </c>
       <c r="E4" t="n">
-        <v>26.36</v>
+        <v>18.276</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>56.9</v>
+        <v>59.76</v>
       </c>
       <c r="E5" t="n">
-        <v>25.5</v>
+        <v>26.204</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>86.22</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>133.02</v>
+        <v>60.48</v>
       </c>
       <c r="E6" t="n">
-        <v>23.968</v>
+        <v>25.632</v>
       </c>
     </row>
     <row r="7">
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>45.1</v>
+        <v>59.76</v>
       </c>
       <c r="D7" t="n">
-        <v>126.8</v>
+        <v>132.9</v>
       </c>
       <c r="E7" t="n">
-        <v>24.6</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="8">
@@ -580,36 +580,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>133.02</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>183.96</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>21.504</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>132.9</v>
       </c>
       <c r="D9" t="n">
-        <v>83.40000000000001</v>
+        <v>182.7</v>
       </c>
       <c r="E9" t="n">
-        <v>25.8</v>
+        <v>18.14</v>
       </c>
     </row>
     <row r="10">
@@ -618,17 +618,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>183.96</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>233.22</v>
+        <v>131.3</v>
       </c>
       <c r="E10" t="n">
-        <v>17.708</v>
+        <v>22.16</v>
       </c>
     </row>
     <row r="11">
@@ -637,36 +637,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>233.22</v>
+        <v>131.3</v>
       </c>
       <c r="D11" t="n">
-        <v>273.08</v>
+        <v>195.46</v>
       </c>
       <c r="E11" t="n">
-        <v>14.852</v>
+        <v>18.364</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>273.08</v>
+        <v>60.48</v>
       </c>
       <c r="D12" t="n">
-        <v>307.32</v>
+        <v>120.18</v>
       </c>
       <c r="E12" t="n">
-        <v>12.068</v>
+        <v>22.752</v>
       </c>
     </row>
     <row r="13">
@@ -675,17 +675,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>60.8</v>
+        <v>76.66</v>
       </c>
       <c r="E13" t="n">
-        <v>25.62</v>
+        <v>26.024</v>
       </c>
     </row>
     <row r="14">
@@ -694,17 +694,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>83.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>141.08</v>
+        <v>49.12</v>
       </c>
       <c r="E14" t="n">
-        <v>22.152</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="15">
@@ -713,17 +713,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>141.08</v>
+        <v>49.12</v>
       </c>
       <c r="D15" t="n">
-        <v>202.74</v>
+        <v>116.96</v>
       </c>
       <c r="E15" t="n">
-        <v>17.616</v>
+        <v>23.084</v>
       </c>
     </row>
     <row r="16">
@@ -732,55 +732,55 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>56.9</v>
+        <v>120.18</v>
       </c>
       <c r="D16" t="n">
-        <v>103.06</v>
+        <v>209.78</v>
       </c>
       <c r="E16" t="n">
-        <v>21.524</v>
+        <v>19.372</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>103.06</v>
+        <v>116.96</v>
       </c>
       <c r="D17" t="n">
-        <v>151.42</v>
+        <v>151.52</v>
       </c>
       <c r="E17" t="n">
-        <v>18.308</v>
+        <v>20.268</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>60.8</v>
+        <v>166.74</v>
       </c>
       <c r="D18" t="n">
-        <v>127.9</v>
+        <v>233.64</v>
       </c>
       <c r="E18" t="n">
-        <v>22.5</v>
+        <v>15.196</v>
       </c>
     </row>
     <row r="19">
@@ -789,169 +789,169 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>67.90000000000001</v>
+        <v>233.64</v>
       </c>
       <c r="D19" t="n">
-        <v>115.68</v>
+        <v>304.86</v>
       </c>
       <c r="E19" t="n">
-        <v>22.712</v>
+        <v>11.164</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>127.9</v>
+        <v>304.86</v>
       </c>
       <c r="D20" t="n">
-        <v>176.5</v>
+        <v>351</v>
       </c>
       <c r="E20" t="n">
-        <v>19.26</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>176.5</v>
+        <v>182.7</v>
       </c>
       <c r="D21" t="n">
-        <v>246.4</v>
+        <v>235.44</v>
       </c>
       <c r="E21" t="n">
-        <v>15.88</v>
+        <v>13.996</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>246.4</v>
+        <v>209.78</v>
       </c>
       <c r="D22" t="n">
-        <v>323.64</v>
+        <v>274.82</v>
       </c>
       <c r="E22" t="n">
-        <v>11.736</v>
+        <v>16.468</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>151.42</v>
+        <v>151.52</v>
       </c>
       <c r="D23" t="n">
-        <v>210.68</v>
+        <v>236.12</v>
       </c>
       <c r="E23" t="n">
-        <v>14.512</v>
+        <v>15.888</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>210.68</v>
+        <v>236.12</v>
       </c>
       <c r="D24" t="n">
-        <v>247.18</v>
+        <v>275.82</v>
       </c>
       <c r="E24" t="n">
-        <v>11.992</v>
+        <v>13.048</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>115.68</v>
+        <v>76.66</v>
       </c>
       <c r="D25" t="n">
-        <v>170.58</v>
+        <v>118.26</v>
       </c>
       <c r="E25" t="n">
-        <v>19.332</v>
+        <v>23.504</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>170.58</v>
+        <v>118.26</v>
       </c>
       <c r="D26" t="n">
-        <v>229.64</v>
+        <v>176.66</v>
       </c>
       <c r="E26" t="n">
-        <v>16.516</v>
+        <v>20.264</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>202.74</v>
+        <v>176.66</v>
       </c>
       <c r="D27" t="n">
-        <v>250.14</v>
+        <v>212.6</v>
       </c>
       <c r="E27" t="n">
-        <v>14.496</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="28">
@@ -960,36 +960,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>307.32</v>
+        <v>195.46</v>
       </c>
       <c r="D28" t="n">
-        <v>389.32</v>
+        <v>262.02</v>
       </c>
       <c r="E28" t="n">
-        <v>8.948</v>
+        <v>13.828</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>323.64</v>
+        <v>351</v>
       </c>
       <c r="D29" t="n">
-        <v>406.44</v>
+        <v>399.08</v>
       </c>
       <c r="E29" t="n">
-        <v>7.576</v>
+        <v>4.512</v>
       </c>
     </row>
     <row r="30">
@@ -998,169 +998,169 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>229.64</v>
+        <v>399.08</v>
       </c>
       <c r="D30" t="n">
-        <v>276.94</v>
+        <v>453.28</v>
       </c>
       <c r="E30" t="n">
-        <v>12.916</v>
+        <v>1.212</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>247.18</v>
+        <v>453.28</v>
       </c>
       <c r="D31" t="n">
-        <v>300.64</v>
+        <v>517.86</v>
       </c>
       <c r="E31" t="n">
-        <v>8.776</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>276.94</v>
+        <v>274.82</v>
       </c>
       <c r="D32" t="n">
-        <v>336.94</v>
+        <v>325.42</v>
       </c>
       <c r="E32" t="n">
-        <v>9.555999999999999</v>
+        <v>14.028</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>250.14</v>
+        <v>235.44</v>
       </c>
       <c r="D33" t="n">
-        <v>292.24</v>
+        <v>291.66</v>
       </c>
       <c r="E33" t="n">
-        <v>11.416</v>
+        <v>11.004</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>406.44</v>
+        <v>325.42</v>
       </c>
       <c r="D34" t="n">
-        <v>457.48</v>
+        <v>389.5</v>
       </c>
       <c r="E34" t="n">
-        <v>4.092</v>
+        <v>11.22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>457.48</v>
+        <v>275.82</v>
       </c>
       <c r="D35" t="n">
-        <v>506.68</v>
+        <v>343.02</v>
       </c>
       <c r="E35" t="n">
-        <v>0.792</v>
+        <v>9.928000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>506.68</v>
+        <v>389.5</v>
       </c>
       <c r="D36" t="n">
-        <v>577.1</v>
+        <v>445.52</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>8.228</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>126.8</v>
+        <v>212.6</v>
       </c>
       <c r="D37" t="n">
-        <v>194.48</v>
+        <v>270.28</v>
       </c>
       <c r="E37" t="n">
-        <v>21.432</v>
+        <v>14.152</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>194.48</v>
+        <v>517.86</v>
       </c>
       <c r="D38" t="n">
-        <v>247.52</v>
+        <v>596.0599999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>18.728</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="39">
@@ -1169,55 +1169,55 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>292.24</v>
+        <v>343.02</v>
       </c>
       <c r="D39" t="n">
-        <v>375.66</v>
+        <v>391.9</v>
       </c>
       <c r="E39" t="n">
-        <v>7.204</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>336.94</v>
+        <v>291.66</v>
       </c>
       <c r="D40" t="n">
-        <v>410.64</v>
+        <v>362.84</v>
       </c>
       <c r="E40" t="n">
-        <v>6.256</v>
+        <v>7.476</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>247.52</v>
+        <v>270.28</v>
       </c>
       <c r="D41" t="n">
-        <v>306.7</v>
+        <v>323.16</v>
       </c>
       <c r="E41" t="n">
-        <v>15.92</v>
+        <v>10.504</v>
       </c>
     </row>
     <row r="42">
@@ -1226,36 +1226,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>375.66</v>
+        <v>391.9</v>
       </c>
       <c r="D42" t="n">
-        <v>421.26</v>
+        <v>459.3</v>
       </c>
       <c r="E42" t="n">
-        <v>4.764</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>306.7</v>
+        <v>596.0599999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>365</v>
+        <v>655.0599999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>11.72</v>
+        <v>22.54</v>
       </c>
     </row>
     <row r="44">
@@ -1264,74 +1264,74 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>365</v>
+        <v>362.84</v>
       </c>
       <c r="D44" t="n">
-        <v>408.6</v>
+        <v>434.84</v>
       </c>
       <c r="E44" t="n">
-        <v>8</v>
+        <v>4.396</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>410.64</v>
+        <v>323.16</v>
       </c>
       <c r="D45" t="n">
-        <v>470.64</v>
+        <v>367.46</v>
       </c>
       <c r="E45" t="n">
-        <v>1.876</v>
+        <v>8.183999999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>470.64</v>
+        <v>367.46</v>
       </c>
       <c r="D46" t="n">
-        <v>543.6900000000001</v>
+        <v>453.66</v>
       </c>
       <c r="E46" t="n">
-        <v>30</v>
+        <v>5.144</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>577.1</v>
+        <v>262.02</v>
       </c>
       <c r="D47" t="n">
-        <v>642.64</v>
+        <v>330.32</v>
       </c>
       <c r="E47" t="n">
-        <v>27.096</v>
+        <v>9.628</v>
       </c>
     </row>
     <row r="48">
@@ -1340,36 +1340,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>642.64</v>
+        <v>453.66</v>
       </c>
       <c r="D48" t="n">
-        <v>728.96</v>
+        <v>509.08</v>
       </c>
       <c r="E48" t="n">
-        <v>23.064</v>
+        <v>1.712</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>543.6900000000001</v>
+        <v>509.08</v>
       </c>
       <c r="D49" t="n">
-        <v>627.23</v>
+        <v>602.26</v>
       </c>
       <c r="E49" t="n">
-        <v>25.296</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
@@ -1378,41 +1378,41 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>300.64</v>
+        <v>445.52</v>
       </c>
       <c r="D50" t="n">
-        <v>346.76</v>
+        <v>485.72</v>
       </c>
       <c r="E50" t="n">
-        <v>5.784</v>
+        <v>4.848</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>421.26</v>
+        <v>434.84</v>
       </c>
       <c r="D51" t="n">
-        <v>487.44</v>
+        <v>518.26</v>
       </c>
       <c r="E51" t="n">
-        <v>1.236</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>487.44</v>
+        <v>518.26</v>
       </c>
       <c r="D52" t="n">
-        <v>566.77</v>
+        <v>619.39</v>
       </c>
       <c r="E52" t="n">
         <v>30</v>
@@ -1435,17 +1435,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>389.32</v>
+        <v>330.32</v>
       </c>
       <c r="D53" t="n">
-        <v>459.1</v>
+        <v>374.56</v>
       </c>
       <c r="E53" t="n">
-        <v>4.58</v>
+        <v>6.844</v>
       </c>
     </row>
     <row r="54">
@@ -1454,17 +1454,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>346.76</v>
+        <v>485.72</v>
       </c>
       <c r="D54" t="n">
-        <v>438.42</v>
+        <v>534.08</v>
       </c>
       <c r="E54" t="n">
-        <v>1.728</v>
+        <v>1.632</v>
       </c>
     </row>
     <row r="55">
@@ -1473,14 +1473,14 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>438.42</v>
+        <v>534.08</v>
       </c>
       <c r="D55" t="n">
-        <v>526.66</v>
+        <v>612.62</v>
       </c>
       <c r="E55" t="n">
         <v>30</v>
@@ -1492,36 +1492,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>459.1</v>
+        <v>374.56</v>
       </c>
       <c r="D56" t="n">
-        <v>517.62</v>
+        <v>409.52</v>
       </c>
       <c r="E56" t="n">
-        <v>0.368</v>
+        <v>3.988</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>517.62</v>
+        <v>619.39</v>
       </c>
       <c r="D57" t="n">
-        <v>603.58</v>
+        <v>666.61</v>
       </c>
       <c r="E57" t="n">
-        <v>30</v>
+        <v>27.448</v>
       </c>
     </row>
     <row r="58">
@@ -1530,93 +1530,93 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>566.77</v>
+        <v>459.3</v>
       </c>
       <c r="D58" t="n">
-        <v>607.0700000000001</v>
+        <v>520.5</v>
       </c>
       <c r="E58" t="n">
-        <v>27.16</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>408.6</v>
+        <v>520.5</v>
       </c>
       <c r="D59" t="n">
-        <v>468.5</v>
+        <v>602.36</v>
       </c>
       <c r="E59" t="n">
-        <v>5.12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>526.66</v>
+        <v>602.36</v>
       </c>
       <c r="D60" t="n">
-        <v>576.66</v>
+        <v>676.1799999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>26.7</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>607.0700000000001</v>
+        <v>409.52</v>
       </c>
       <c r="D61" t="n">
-        <v>646.35</v>
+        <v>467.78</v>
       </c>
       <c r="E61" t="n">
-        <v>24.872</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>646.35</v>
+        <v>467.78</v>
       </c>
       <c r="D62" t="n">
-        <v>714.75</v>
+        <v>562.9400000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>21.632</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
@@ -1625,36 +1625,36 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>468.5</v>
+        <v>666.61</v>
       </c>
       <c r="D63" t="n">
-        <v>543.08</v>
+        <v>715.11</v>
       </c>
       <c r="E63" t="n">
-        <v>0.752</v>
+        <v>23.728</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>543.08</v>
+        <v>655.0599999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>628.38</v>
+        <v>731.76</v>
       </c>
       <c r="E64" t="n">
-        <v>30</v>
+        <v>18.94</v>
       </c>
     </row>
     <row r="65">
@@ -1663,17 +1663,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>576.66</v>
+        <v>612.62</v>
       </c>
       <c r="D65" t="n">
-        <v>640.1799999999999</v>
+        <v>671.72</v>
       </c>
       <c r="E65" t="n">
-        <v>22.488</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="66">
@@ -1682,36 +1682,36 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>728.96</v>
+        <v>602.26</v>
       </c>
       <c r="D66" t="n">
-        <v>780.6799999999999</v>
+        <v>640.46</v>
       </c>
       <c r="E66" t="n">
-        <v>20.512</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>627.23</v>
+        <v>640.46</v>
       </c>
       <c r="D67" t="n">
-        <v>697.85</v>
+        <v>710.46</v>
       </c>
       <c r="E67" t="n">
-        <v>21.864</v>
+        <v>22.5</v>
       </c>
     </row>
   </sheetData>
